--- a/qa/06.规范模板/坑爹的数据结构.xlsx
+++ b/qa/06.规范模板/坑爹的数据结构.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="技能系统" sheetId="1" r:id="rId1"/>
     <sheet name="道具系统" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>spell</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,13 +83,48 @@
   </si>
   <si>
     <t>type=7，特殊格式：type_怪物ID_品级_个数</t>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过effect的类型可以具体把表格拆分为几个子表（num数据类型的需要配置0）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=set，1=search，2=Persistent，3=damage，4=applybuff，5=switch，6=dispel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1=dot，2=hot,3=防御，4=debuff，5=bennefit，6=怪物AI释放大招标记buff，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7=物理减免护盾，8=法术减免护盾，9=物理吸收护盾，10=法术吸收护盾，11=被动buff</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +161,35 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,11 +212,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -542,6 +613,48 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -552,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
